--- a/src/main/java/com/app/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/app/qa/testdata/TestData.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/MyPOMFramework/PageObjectModel/src/main/java/com/crm/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albinjoy/Documents/development/ArriveCAN/src/main/java/com/app/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A49FD-B308-6C4C-AE0F-EF58C5D728D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts" sheetId="1" r:id="rId1"/>
-    <sheet name="deals" sheetId="2" r:id="rId2"/>
-    <sheet name="tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="arrivecan" sheetId="4" r:id="rId1"/>
+    <sheet name="contacts" sheetId="1" r:id="rId2"/>
+    <sheet name="deals" sheetId="2" r:id="rId3"/>
+    <sheet name="tasks" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>title</t>
   </si>
@@ -78,11 +80,20 @@
   <si>
     <t>Ebay</t>
   </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>TravelPurp_btn</t>
+  </si>
+  <si>
+    <t>TravelPurp_lbl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -138,6 +149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -405,10 +419,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ED45E7-CFC1-AC48-9C04-4ECF0D26B37E}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -475,8 +520,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -487,8 +532,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
